--- a/Cronograma/Cronograma__PotiCars.xlsx
+++ b/Cronograma/Cronograma__PotiCars.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E3B57C-9A8E-4411-A409-96EDA10D92B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E806E3FF-F7E4-4BD7-852E-B4FC6809F43A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>Atividade Design</t>
   </si>
   <si>
-    <t>Atividade Implementação</t>
-  </si>
-  <si>
     <t>Atividade de Preparação para primeira entrega</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>Atividade Implementação de consultas no BD</t>
+  </si>
+  <si>
+    <t>Atividade Implementação scripts PHP</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1259,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97EA7D1D-3FC6-4D88-B000-D14390A72829}" type="CELLRANGE">
+                    <a:fld id="{4FAD730B-9261-4BC7-8570-5567B2A23E75}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1292,7 +1292,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F62F000D-F930-4177-BA70-536FA63F9812}" type="CELLRANGE">
+                    <a:fld id="{E66143BA-75F2-4B7C-8E8C-60626E3BD5B5}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1326,7 +1326,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D2F8FCD-F9A4-4D12-994B-1B1A95991076}" type="CELLRANGE">
+                    <a:fld id="{12AF0306-46CF-40AF-9A07-0B8B55D4E187}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1360,7 +1360,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{052D3BDF-6131-4DE4-8219-5C8255C323F0}" type="CELLRANGE">
+                    <a:fld id="{56164454-6F8A-4ECB-AC40-B5760189B4D3}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1394,7 +1394,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{970A0E7B-A493-46E5-9D49-62817BA17962}" type="CELLRANGE">
+                    <a:fld id="{C08157F5-2B59-4874-BBC6-A61F7DC438E1}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1428,7 +1428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79F573CE-0BEC-4883-9E12-7C9F0592A438}" type="CELLRANGE">
+                    <a:fld id="{41325849-9463-49DE-B471-7B32E621140C}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1462,7 +1462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{096ED826-60CD-4F5D-A593-630706CDB33C}" type="CELLRANGE">
+                    <a:fld id="{B9536E92-D5B5-49D9-8962-41D4F78CCF7C}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1762,7 +1762,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF30A3CD-178E-40F3-8007-F71C8B1244A8}" type="CELLRANGE">
+                    <a:fld id="{F784A7FC-DE2A-4A23-ACB4-75C769B5EEF8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1884,10 +1884,10 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44199</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44199</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,7 +1975,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{942202A5-C72E-4A14-9210-4FF3D90F5546}" type="CELLRANGE">
+                    <a:fld id="{B97B756B-2750-4D44-A9BB-A4B43170772F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2008,7 +2008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{103EB795-01F2-4A94-AB02-733296E018F4}" type="CELLRANGE">
+                    <a:fld id="{83AC867C-9DD2-48C0-94A1-2003CBD3B825}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2042,7 +2042,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2DD74D90-A685-465E-8255-85B654199ED8}" type="CELLRANGE">
+                    <a:fld id="{595DB7FE-4341-4953-B6E2-BD944F6D07D7}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2076,7 +2076,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FDADD3F-26CA-47CB-A8FF-0DF8159D8D18}" type="CELLRANGE">
+                    <a:fld id="{8A2DDFB9-AB5A-4C0A-9FE1-BA78BCE98130}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2110,7 +2110,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D434630C-B33E-4E12-B3C6-4E4557625435}" type="CELLRANGE">
+                    <a:fld id="{FF6C499A-158A-4850-A188-B575ED4F45B7}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2144,7 +2144,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{458F7C10-03D4-4E4C-BB83-310CB594A620}" type="CELLRANGE">
+                    <a:fld id="{C73BF1CC-4346-46A6-BA04-3BF469C3DC5B}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2178,7 +2178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F13575E-159E-4D87-AECB-16AC834AD0F5}" type="CELLRANGE">
+                    <a:fld id="{FCC07AE3-36B7-4F16-AF34-2FD220DD3934}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2212,7 +2212,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7387F8C6-8EC4-4CB7-9397-D0D066300CC8}" type="CELLRANGE">
+                    <a:fld id="{DB5C7D3A-BCE2-4712-A5A5-C27618139BD4}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -3656,8 +3656,8 @@
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3898,7 +3898,7 @@
         <v>44212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -3952,7 +3952,7 @@
         <v>44225</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K12" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -3974,7 +3974,7 @@
         <v>44225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K13" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4022,7 +4022,7 @@
         <v>44232</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4045,7 +4045,7 @@
         <v>44225</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4068,7 +4068,7 @@
         <v>44228</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4091,7 +4091,7 @@
         <v>44232</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4139,7 +4139,7 @@
         <v>44232</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4165,7 +4165,7 @@
         <v>44231</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4223,7 +4223,7 @@
         <v>44237</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K24" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4242,7 +4242,7 @@
         <v>44239</v>
       </c>
       <c r="J25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K25" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4301,7 +4301,7 @@
         <v>44256</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K28" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4320,7 +4320,7 @@
         <v>44250</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K29" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4339,7 +4339,7 @@
         <v>44251</v>
       </c>
       <c r="J30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K30" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4379,7 +4379,7 @@
         <v>44260</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K32" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
@@ -4395,14 +4395,14 @@
         <v>44256</v>
       </c>
       <c r="I33" s="24">
-        <v>44264</v>
+        <v>44258</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K33" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.25">
@@ -4411,17 +4411,17 @@
         <v>29</v>
       </c>
       <c r="H34" s="24">
-        <v>44264</v>
+        <v>44257</v>
       </c>
       <c r="I34" s="24">
-        <v>44269</v>
+        <v>44258</v>
       </c>
       <c r="J34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K34" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.25">
@@ -4430,12 +4430,12 @@
         <v>30</v>
       </c>
       <c r="H35" s="22">
-        <f>H31+10</f>
-        <v>44261</v>
+        <f>H31+6</f>
+        <v>44257</v>
       </c>
       <c r="I35" s="22">
         <f>Tarefas[[#This Row],[Data de início]]</f>
-        <v>44261</v>
+        <v>44257</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>57</v>
@@ -4452,10 +4452,10 @@
       </c>
       <c r="H36" s="22">
         <f>I34</f>
-        <v>44269</v>
+        <v>44258</v>
       </c>
       <c r="I36" s="22">
-        <v>44270</v>
+        <v>44259</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>65</v>
@@ -4471,17 +4471,17 @@
         <v>32</v>
       </c>
       <c r="H37" s="22">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="I37" s="22">
-        <v>44272</v>
+        <v>44259</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K37" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="7:11" x14ac:dyDescent="0.25">
@@ -4490,11 +4490,11 @@
         <v>33</v>
       </c>
       <c r="H38" s="22">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="I38" s="22">
         <f>Tarefas[[#This Row],[Data de início]]</f>
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="J38" s="30" t="s">
         <v>61</v>
@@ -4511,17 +4511,17 @@
       </c>
       <c r="H39" s="22">
         <f>H38+1</f>
-        <v>44271</v>
+        <v>44259</v>
       </c>
       <c r="I39" s="22">
-        <v>44274</v>
+        <v>44260</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K39" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="7:11" x14ac:dyDescent="0.25">
@@ -4773,7 +4773,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f ca="1">IFERROR(IF(TODAY()&lt;MIN(DadosDeTarefaDinâmica[Data de início]),MIN($B$11,MIN(DadosDeTarefaDinâmica[Data de início])),TODAY()),TODAY())</f>
-        <v>44199</v>
+        <v>44225</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">IFERROR(IF(Acompanhar_Hoje="Sim",IF(TODAY()&lt;MIN(DadosDeTarefaDinâmica[Data de início]),0,9),0),0)</f>
@@ -4783,7 +4783,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f ca="1">IFERROR(IF(TODAY()&lt;MIN(DadosDeTarefaDinâmica[Data de início]),MIN($B$11,MIN(DadosDeTarefaDinâmica[Data de início])),TODAY()),TODAY())</f>
-        <v>44199</v>
+        <v>44225</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">IFERROR(IF(Acompanhar_Hoje="Sim",IF(TODAY()&lt;MIN(DadosDeTarefaDinâmica[Data de início]),0,9),0),0)</f>

--- a/Cronograma/Cronograma__PotiCars.xlsx
+++ b/Cronograma/Cronograma__PotiCars.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E806E3FF-F7E4-4BD7-852E-B4FC6809F43A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CEF300-90FE-4723-A72A-2D17FCFE997B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1259,7 +1259,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FAD730B-9261-4BC7-8570-5567B2A23E75}" type="CELLRANGE">
+                    <a:fld id="{10B9A358-6D44-4916-9923-82E1065C1899}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1292,7 +1292,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E66143BA-75F2-4B7C-8E8C-60626E3BD5B5}" type="CELLRANGE">
+                    <a:fld id="{024DA261-0816-4B7B-BE51-E0ACC17C6FA0}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1326,7 +1326,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12AF0306-46CF-40AF-9A07-0B8B55D4E187}" type="CELLRANGE">
+                    <a:fld id="{0DC44B27-5CAE-46FA-892C-11281B360F36}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1360,7 +1360,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56164454-6F8A-4ECB-AC40-B5760189B4D3}" type="CELLRANGE">
+                    <a:fld id="{A3E34580-AFD7-4410-97E6-75EE0E5BB762}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1394,7 +1394,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C08157F5-2B59-4874-BBC6-A61F7DC438E1}" type="CELLRANGE">
+                    <a:fld id="{240A4457-276E-4B8C-96B7-26DC4722EC53}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1447,7 +1447,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1462,7 +1461,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9536E92-D5B5-49D9-8962-41D4F78CCF7C}" type="CELLRANGE">
+                    <a:fld id="{E163840C-4A48-4C9F-8FED-E0E926C141DA}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1762,7 +1761,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F784A7FC-DE2A-4A23-ACB4-75C769B5EEF8}" type="CELLRANGE">
+                    <a:fld id="{7A0B37E6-67FA-4F9D-8C23-1DA3350A5917}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1884,10 +1883,10 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44225</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44225</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,7 +1974,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B97B756B-2750-4D44-A9BB-A4B43170772F}" type="CELLRANGE">
+                    <a:fld id="{0863F06E-0B5C-4432-A378-5492C70DBEA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2008,7 +2007,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83AC867C-9DD2-48C0-94A1-2003CBD3B825}" type="CELLRANGE">
+                    <a:fld id="{44218558-541E-4773-BD66-52C04D8B90B6}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2061,7 +2060,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2095,7 +2093,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2129,7 +2126,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2163,7 +2159,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2197,7 +2192,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2231,7 +2225,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3656,8 +3649,8 @@
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4373,17 +4366,17 @@
         <v>27</v>
       </c>
       <c r="H32" s="24">
-        <v>44256</v>
+        <v>44251</v>
       </c>
       <c r="I32" s="24">
-        <v>44260</v>
+        <v>44257</v>
       </c>
       <c r="J32" t="s">
         <v>79</v>
       </c>
       <c r="K32" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.25">
@@ -4395,14 +4388,14 @@
         <v>44256</v>
       </c>
       <c r="I33" s="24">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="J33" t="s">
         <v>80</v>
       </c>
       <c r="K33" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.25">
@@ -4414,14 +4407,14 @@
         <v>44257</v>
       </c>
       <c r="I34" s="24">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="J34" t="s">
         <v>78</v>
       </c>
       <c r="K34" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.25">
@@ -4452,17 +4445,17 @@
       </c>
       <c r="H36" s="22">
         <f>I34</f>
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="I36" s="22">
-        <v>44259</v>
+        <v>44257</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K36" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="7:11" x14ac:dyDescent="0.25">
@@ -4490,11 +4483,11 @@
         <v>33</v>
       </c>
       <c r="H38" s="22">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="I38" s="22">
         <f>Tarefas[[#This Row],[Data de início]]</f>
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="J38" s="30" t="s">
         <v>61</v>
@@ -4511,7 +4504,7 @@
       </c>
       <c r="H39" s="22">
         <f>H38+1</f>
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="I39" s="22">
         <v>44260</v>
@@ -4521,7 +4514,7 @@
       </c>
       <c r="K39" s="25">
         <f>IFERROR(IF(LEN(Tarefas[[#This Row],[Data de início]])=0,"",(INT(Tarefas[[#This Row],[Data de término]])-INT(Tarefas[[#This Row],[Data de início]]))-(INT(Tarefas[[#This Row],[Data de início]])-INT(Tarefas[[#This Row],[Data de início]]))+1),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="7:11" x14ac:dyDescent="0.25">
@@ -4634,7 +4627,7 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
@@ -4773,7 +4766,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f ca="1">IFERROR(IF(TODAY()&lt;MIN(DadosDeTarefaDinâmica[Data de início]),MIN($B$11,MIN(DadosDeTarefaDinâmica[Data de início])),TODAY()),TODAY())</f>
-        <v>44225</v>
+        <v>44234</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">IFERROR(IF(Acompanhar_Hoje="Sim",IF(TODAY()&lt;MIN(DadosDeTarefaDinâmica[Data de início]),0,9),0),0)</f>
@@ -4783,7 +4776,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f ca="1">IFERROR(IF(TODAY()&lt;MIN(DadosDeTarefaDinâmica[Data de início]),MIN($B$11,MIN(DadosDeTarefaDinâmica[Data de início])),TODAY()),TODAY())</f>
-        <v>44225</v>
+        <v>44234</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">IFERROR(IF(Acompanhar_Hoje="Sim",IF(TODAY()&lt;MIN(DadosDeTarefaDinâmica[Data de início]),0,9),0),0)</f>
